--- a/po_analysis_by_asin/B0947K1VRX_po_data.xlsx
+++ b/po_analysis_by_asin/B0947K1VRX_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,249 +452,441 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>51</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45334</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>96</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45355</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45383</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45390</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45397</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45404</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45411</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45418</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45425</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45432</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45446</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45467</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45474</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45481</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45495</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45502</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45509</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45516</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45523</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45530</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45537</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45544</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45551</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45558</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45565</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45572</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B32" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B56" t="n">
         <v>12</v>
       </c>
     </row>
@@ -709,7 +901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -731,81 +923,145 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>135</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>32</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>118</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>142</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B19" t="n">
         <v>24</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0947K1VRX_po_data.xlsx
+++ b/po_analysis_by_asin/B0947K1VRX_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -917,7 +918,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1063,6 +1064,929 @@
       </c>
       <c r="B19" t="n">
         <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>49</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11.44015447076131</v>
+      </c>
+      <c r="D2" t="n">
+        <v>84.96956472350946</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>42</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.644236380584369</v>
+      </c>
+      <c r="D3" t="n">
+        <v>79.69191131980477</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>41</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.672631257475939</v>
+      </c>
+      <c r="D4" t="n">
+        <v>79.52457742243301</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>40</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8579236144346419</v>
+      </c>
+      <c r="D5" t="n">
+        <v>77.47444897245343</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>40</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.904188725992722</v>
+      </c>
+      <c r="D6" t="n">
+        <v>78.01013502933863</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>39</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8289256094657498</v>
+      </c>
+      <c r="D7" t="n">
+        <v>76.11353583274681</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>39</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.021712395875023</v>
+      </c>
+      <c r="D8" t="n">
+        <v>77.2817493776581</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>38</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1805920384426122</v>
+      </c>
+      <c r="D9" t="n">
+        <v>75.80630920326614</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>38</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.0007175177293758609</v>
+      </c>
+      <c r="D10" t="n">
+        <v>74.41642367226071</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>37</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.293728937648777</v>
+      </c>
+      <c r="D11" t="n">
+        <v>75.52051195653415</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>37</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1.848657107648902</v>
+      </c>
+      <c r="D12" t="n">
+        <v>72.81621042301073</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>36</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1.302027627304075</v>
+      </c>
+      <c r="D13" t="n">
+        <v>73.66834151825758</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>36</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.145434579500737</v>
+      </c>
+      <c r="D14" t="n">
+        <v>73.61098113078675</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>35</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-2.532673619617068</v>
+      </c>
+      <c r="D15" t="n">
+        <v>72.10149708316717</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>34</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-2.562409059243838</v>
+      </c>
+      <c r="D16" t="n">
+        <v>73.3789964766293</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>34</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-6.35820795052154</v>
+      </c>
+      <c r="D17" t="n">
+        <v>71.03938916656826</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>34</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-3.650471017492221</v>
+      </c>
+      <c r="D18" t="n">
+        <v>70.61132990278101</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>33</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-5.804989026081962</v>
+      </c>
+      <c r="D19" t="n">
+        <v>70.32748268630229</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>33</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-3.033277723457284</v>
+      </c>
+      <c r="D20" t="n">
+        <v>70.14209911621225</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>32</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-6.625108586250268</v>
+      </c>
+      <c r="D21" t="n">
+        <v>69.44158140163782</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>32</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-4.429658801662914</v>
+      </c>
+      <c r="D22" t="n">
+        <v>67.59621552188469</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>31</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-6.887645816146271</v>
+      </c>
+      <c r="D23" t="n">
+        <v>69.82751874763632</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>31</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-6.293366012920988</v>
+      </c>
+      <c r="D24" t="n">
+        <v>67.24591258260251</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>30</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-5.396095687701102</v>
+      </c>
+      <c r="D25" t="n">
+        <v>68.5240348548369</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>29</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-6.175967931238206</v>
+      </c>
+      <c r="D26" t="n">
+        <v>65.82913574638786</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>29</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-7.789464901477613</v>
+      </c>
+      <c r="D27" t="n">
+        <v>64.81214743714642</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>28</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-7.229839260278166</v>
+      </c>
+      <c r="D28" t="n">
+        <v>66.21251400799085</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-9.256494687251395</v>
+      </c>
+      <c r="D29" t="n">
+        <v>65.86887193033228</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>27</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-12.75985489529726</v>
+      </c>
+      <c r="D30" t="n">
+        <v>64.07372591618518</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>26</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-10.95237981297617</v>
+      </c>
+      <c r="D31" t="n">
+        <v>63.20199478934044</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>25</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-13.13614830851853</v>
+      </c>
+      <c r="D32" t="n">
+        <v>62.85664137530733</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>23</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-13.81414559125868</v>
+      </c>
+      <c r="D33" t="n">
+        <v>59.28407208662271</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>23</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-15.94602312639076</v>
+      </c>
+      <c r="D34" t="n">
+        <v>61.5218944363608</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>23</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-14.50225753787963</v>
+      </c>
+      <c r="D35" t="n">
+        <v>59.13457888820479</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>22</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-18.35273342054244</v>
+      </c>
+      <c r="D36" t="n">
+        <v>61.52910370475438</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>22</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-15.97863117989255</v>
+      </c>
+      <c r="D37" t="n">
+        <v>58.20677428112253</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>21</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-16.84284402631207</v>
+      </c>
+      <c r="D38" t="n">
+        <v>55.77183885439798</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>21</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-16.7136273589853</v>
+      </c>
+      <c r="D39" t="n">
+        <v>56.48932248597151</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>20</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-16.28998789423687</v>
+      </c>
+      <c r="D40" t="n">
+        <v>58.62134258321237</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>19</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-19.69541271987141</v>
+      </c>
+      <c r="D41" t="n">
+        <v>55.9418002783251</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>18</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-20.36005265733079</v>
+      </c>
+      <c r="D42" t="n">
+        <v>56.00564287730968</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>18</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-20.82896387389325</v>
+      </c>
+      <c r="D43" t="n">
+        <v>54.93274443256497</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>17</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-22.68869760213064</v>
+      </c>
+      <c r="D44" t="n">
+        <v>55.14574275386525</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>16</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-21.59612611980069</v>
+      </c>
+      <c r="D45" t="n">
+        <v>56.66324568531562</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>16</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-21.09119241210526</v>
+      </c>
+      <c r="D46" t="n">
+        <v>53.59686535321292</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>15</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-19.18729714472384</v>
+      </c>
+      <c r="D47" t="n">
+        <v>52.79049387636852</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>15</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-24.50742736159432</v>
+      </c>
+      <c r="D48" t="n">
+        <v>50.54504557893179</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>15</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-24.86874148817169</v>
+      </c>
+      <c r="D49" t="n">
+        <v>51.48720963289259</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>14</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-22.35915007404475</v>
+      </c>
+      <c r="D50" t="n">
+        <v>52.34211695987424</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>14</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-24.49103145888434</v>
+      </c>
+      <c r="D51" t="n">
+        <v>52.25494542645764</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>13</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-23.49907724544061</v>
+      </c>
+      <c r="D52" t="n">
+        <v>49.27712741011707</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>13</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-22.91458905622266</v>
+      </c>
+      <c r="D53" t="n">
+        <v>51.59991216806661</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>12</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-26.6369035448695</v>
+      </c>
+      <c r="D54" t="n">
+        <v>51.9619989135785</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>12</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-26.45282947889901</v>
+      </c>
+      <c r="D55" t="n">
+        <v>51.22325593272369</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>11</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-24.01670138319271</v>
+      </c>
+      <c r="D56" t="n">
+        <v>46.71896252606422</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>11</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-23.23146704726793</v>
+      </c>
+      <c r="D57" t="n">
+        <v>52.02293897469358</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>11</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-24.01478178420362</v>
+      </c>
+      <c r="D58" t="n">
+        <v>50.83912563026286</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>10</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-28.77705666290768</v>
+      </c>
+      <c r="D59" t="n">
+        <v>46.98415223804604</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>10</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-26.91286572404256</v>
+      </c>
+      <c r="D60" t="n">
+        <v>47.97062562024498</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>9</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-28.35309903641337</v>
+      </c>
+      <c r="D61" t="n">
+        <v>47.32231860709455</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>9</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-27.48818421441822</v>
+      </c>
+      <c r="D62" t="n">
+        <v>46.81655847436143</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>8</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-26.23998763013905</v>
+      </c>
+      <c r="D63" t="n">
+        <v>45.79599863684756</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>8</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-27.93332168467216</v>
+      </c>
+      <c r="D64" t="n">
+        <v>43.54791712510469</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0947K1VRX_po_data.xlsx
+++ b/po_analysis_by_asin/B0947K1VRX_po_data.xlsx
@@ -1077,7 +1077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1096,16 +1096,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1114,12 +1104,6 @@
       <c r="B2" t="n">
         <v>49</v>
       </c>
-      <c r="C2" t="n">
-        <v>11.44015447076131</v>
-      </c>
-      <c r="D2" t="n">
-        <v>84.96956472350946</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1128,12 +1112,6 @@
       <c r="B3" t="n">
         <v>42</v>
       </c>
-      <c r="C3" t="n">
-        <v>5.644236380584369</v>
-      </c>
-      <c r="D3" t="n">
-        <v>79.69191131980477</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1142,12 +1120,6 @@
       <c r="B4" t="n">
         <v>41</v>
       </c>
-      <c r="C4" t="n">
-        <v>5.672631257475939</v>
-      </c>
-      <c r="D4" t="n">
-        <v>79.52457742243301</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1156,12 +1128,6 @@
       <c r="B5" t="n">
         <v>40</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.8579236144346419</v>
-      </c>
-      <c r="D5" t="n">
-        <v>77.47444897245343</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1170,12 +1136,6 @@
       <c r="B6" t="n">
         <v>40</v>
       </c>
-      <c r="C6" t="n">
-        <v>5.904188725992722</v>
-      </c>
-      <c r="D6" t="n">
-        <v>78.01013502933863</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1184,12 +1144,6 @@
       <c r="B7" t="n">
         <v>39</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.8289256094657498</v>
-      </c>
-      <c r="D7" t="n">
-        <v>76.11353583274681</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1198,12 +1152,6 @@
       <c r="B8" t="n">
         <v>39</v>
       </c>
-      <c r="C8" t="n">
-        <v>1.021712395875023</v>
-      </c>
-      <c r="D8" t="n">
-        <v>77.2817493776581</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1212,12 +1160,6 @@
       <c r="B9" t="n">
         <v>38</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.1805920384426122</v>
-      </c>
-      <c r="D9" t="n">
-        <v>75.80630920326614</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1226,12 +1168,6 @@
       <c r="B10" t="n">
         <v>38</v>
       </c>
-      <c r="C10" t="n">
-        <v>-0.0007175177293758609</v>
-      </c>
-      <c r="D10" t="n">
-        <v>74.41642367226071</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1240,12 +1176,6 @@
       <c r="B11" t="n">
         <v>37</v>
       </c>
-      <c r="C11" t="n">
-        <v>1.293728937648777</v>
-      </c>
-      <c r="D11" t="n">
-        <v>75.52051195653415</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1254,12 +1184,6 @@
       <c r="B12" t="n">
         <v>37</v>
       </c>
-      <c r="C12" t="n">
-        <v>-1.848657107648902</v>
-      </c>
-      <c r="D12" t="n">
-        <v>72.81621042301073</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1268,12 +1192,6 @@
       <c r="B13" t="n">
         <v>36</v>
       </c>
-      <c r="C13" t="n">
-        <v>-1.302027627304075</v>
-      </c>
-      <c r="D13" t="n">
-        <v>73.66834151825758</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1282,12 +1200,6 @@
       <c r="B14" t="n">
         <v>36</v>
       </c>
-      <c r="C14" t="n">
-        <v>-2.145434579500737</v>
-      </c>
-      <c r="D14" t="n">
-        <v>73.61098113078675</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1296,12 +1208,6 @@
       <c r="B15" t="n">
         <v>35</v>
       </c>
-      <c r="C15" t="n">
-        <v>-2.532673619617068</v>
-      </c>
-      <c r="D15" t="n">
-        <v>72.10149708316717</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1310,12 +1216,6 @@
       <c r="B16" t="n">
         <v>34</v>
       </c>
-      <c r="C16" t="n">
-        <v>-2.562409059243838</v>
-      </c>
-      <c r="D16" t="n">
-        <v>73.3789964766293</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1324,12 +1224,6 @@
       <c r="B17" t="n">
         <v>34</v>
       </c>
-      <c r="C17" t="n">
-        <v>-6.35820795052154</v>
-      </c>
-      <c r="D17" t="n">
-        <v>71.03938916656826</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1338,12 +1232,6 @@
       <c r="B18" t="n">
         <v>34</v>
       </c>
-      <c r="C18" t="n">
-        <v>-3.650471017492221</v>
-      </c>
-      <c r="D18" t="n">
-        <v>70.61132990278101</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1352,12 +1240,6 @@
       <c r="B19" t="n">
         <v>33</v>
       </c>
-      <c r="C19" t="n">
-        <v>-5.804989026081962</v>
-      </c>
-      <c r="D19" t="n">
-        <v>70.32748268630229</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1366,12 +1248,6 @@
       <c r="B20" t="n">
         <v>33</v>
       </c>
-      <c r="C20" t="n">
-        <v>-3.033277723457284</v>
-      </c>
-      <c r="D20" t="n">
-        <v>70.14209911621225</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1380,12 +1256,6 @@
       <c r="B21" t="n">
         <v>32</v>
       </c>
-      <c r="C21" t="n">
-        <v>-6.625108586250268</v>
-      </c>
-      <c r="D21" t="n">
-        <v>69.44158140163782</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1394,12 +1264,6 @@
       <c r="B22" t="n">
         <v>32</v>
       </c>
-      <c r="C22" t="n">
-        <v>-4.429658801662914</v>
-      </c>
-      <c r="D22" t="n">
-        <v>67.59621552188469</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1408,12 +1272,6 @@
       <c r="B23" t="n">
         <v>31</v>
       </c>
-      <c r="C23" t="n">
-        <v>-6.887645816146271</v>
-      </c>
-      <c r="D23" t="n">
-        <v>69.82751874763632</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1422,12 +1280,6 @@
       <c r="B24" t="n">
         <v>31</v>
       </c>
-      <c r="C24" t="n">
-        <v>-6.293366012920988</v>
-      </c>
-      <c r="D24" t="n">
-        <v>67.24591258260251</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1436,12 +1288,6 @@
       <c r="B25" t="n">
         <v>30</v>
       </c>
-      <c r="C25" t="n">
-        <v>-5.396095687701102</v>
-      </c>
-      <c r="D25" t="n">
-        <v>68.5240348548369</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1450,12 +1296,6 @@
       <c r="B26" t="n">
         <v>29</v>
       </c>
-      <c r="C26" t="n">
-        <v>-6.175967931238206</v>
-      </c>
-      <c r="D26" t="n">
-        <v>65.82913574638786</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1464,12 +1304,6 @@
       <c r="B27" t="n">
         <v>29</v>
       </c>
-      <c r="C27" t="n">
-        <v>-7.789464901477613</v>
-      </c>
-      <c r="D27" t="n">
-        <v>64.81214743714642</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1478,12 +1312,6 @@
       <c r="B28" t="n">
         <v>28</v>
       </c>
-      <c r="C28" t="n">
-        <v>-7.229839260278166</v>
-      </c>
-      <c r="D28" t="n">
-        <v>66.21251400799085</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1492,12 +1320,6 @@
       <c r="B29" t="n">
         <v>28</v>
       </c>
-      <c r="C29" t="n">
-        <v>-9.256494687251395</v>
-      </c>
-      <c r="D29" t="n">
-        <v>65.86887193033228</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1506,12 +1328,6 @@
       <c r="B30" t="n">
         <v>27</v>
       </c>
-      <c r="C30" t="n">
-        <v>-12.75985489529726</v>
-      </c>
-      <c r="D30" t="n">
-        <v>64.07372591618518</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1520,12 +1336,6 @@
       <c r="B31" t="n">
         <v>26</v>
       </c>
-      <c r="C31" t="n">
-        <v>-10.95237981297617</v>
-      </c>
-      <c r="D31" t="n">
-        <v>63.20199478934044</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1534,12 +1344,6 @@
       <c r="B32" t="n">
         <v>25</v>
       </c>
-      <c r="C32" t="n">
-        <v>-13.13614830851853</v>
-      </c>
-      <c r="D32" t="n">
-        <v>62.85664137530733</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1548,12 +1352,6 @@
       <c r="B33" t="n">
         <v>23</v>
       </c>
-      <c r="C33" t="n">
-        <v>-13.81414559125868</v>
-      </c>
-      <c r="D33" t="n">
-        <v>59.28407208662271</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1562,12 +1360,6 @@
       <c r="B34" t="n">
         <v>23</v>
       </c>
-      <c r="C34" t="n">
-        <v>-15.94602312639076</v>
-      </c>
-      <c r="D34" t="n">
-        <v>61.5218944363608</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1576,12 +1368,6 @@
       <c r="B35" t="n">
         <v>23</v>
       </c>
-      <c r="C35" t="n">
-        <v>-14.50225753787963</v>
-      </c>
-      <c r="D35" t="n">
-        <v>59.13457888820479</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1590,12 +1376,6 @@
       <c r="B36" t="n">
         <v>22</v>
       </c>
-      <c r="C36" t="n">
-        <v>-18.35273342054244</v>
-      </c>
-      <c r="D36" t="n">
-        <v>61.52910370475438</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1604,12 +1384,6 @@
       <c r="B37" t="n">
         <v>22</v>
       </c>
-      <c r="C37" t="n">
-        <v>-15.97863117989255</v>
-      </c>
-      <c r="D37" t="n">
-        <v>58.20677428112253</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1618,12 +1392,6 @@
       <c r="B38" t="n">
         <v>21</v>
       </c>
-      <c r="C38" t="n">
-        <v>-16.84284402631207</v>
-      </c>
-      <c r="D38" t="n">
-        <v>55.77183885439798</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1632,12 +1400,6 @@
       <c r="B39" t="n">
         <v>21</v>
       </c>
-      <c r="C39" t="n">
-        <v>-16.7136273589853</v>
-      </c>
-      <c r="D39" t="n">
-        <v>56.48932248597151</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1646,12 +1408,6 @@
       <c r="B40" t="n">
         <v>20</v>
       </c>
-      <c r="C40" t="n">
-        <v>-16.28998789423687</v>
-      </c>
-      <c r="D40" t="n">
-        <v>58.62134258321237</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1660,12 +1416,6 @@
       <c r="B41" t="n">
         <v>19</v>
       </c>
-      <c r="C41" t="n">
-        <v>-19.69541271987141</v>
-      </c>
-      <c r="D41" t="n">
-        <v>55.9418002783251</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1674,12 +1424,6 @@
       <c r="B42" t="n">
         <v>18</v>
       </c>
-      <c r="C42" t="n">
-        <v>-20.36005265733079</v>
-      </c>
-      <c r="D42" t="n">
-        <v>56.00564287730968</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1688,12 +1432,6 @@
       <c r="B43" t="n">
         <v>18</v>
       </c>
-      <c r="C43" t="n">
-        <v>-20.82896387389325</v>
-      </c>
-      <c r="D43" t="n">
-        <v>54.93274443256497</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1702,12 +1440,6 @@
       <c r="B44" t="n">
         <v>17</v>
       </c>
-      <c r="C44" t="n">
-        <v>-22.68869760213064</v>
-      </c>
-      <c r="D44" t="n">
-        <v>55.14574275386525</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1716,12 +1448,6 @@
       <c r="B45" t="n">
         <v>16</v>
       </c>
-      <c r="C45" t="n">
-        <v>-21.59612611980069</v>
-      </c>
-      <c r="D45" t="n">
-        <v>56.66324568531562</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1730,12 +1456,6 @@
       <c r="B46" t="n">
         <v>16</v>
       </c>
-      <c r="C46" t="n">
-        <v>-21.09119241210526</v>
-      </c>
-      <c r="D46" t="n">
-        <v>53.59686535321292</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1744,12 +1464,6 @@
       <c r="B47" t="n">
         <v>15</v>
       </c>
-      <c r="C47" t="n">
-        <v>-19.18729714472384</v>
-      </c>
-      <c r="D47" t="n">
-        <v>52.79049387636852</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1758,12 +1472,6 @@
       <c r="B48" t="n">
         <v>15</v>
       </c>
-      <c r="C48" t="n">
-        <v>-24.50742736159432</v>
-      </c>
-      <c r="D48" t="n">
-        <v>50.54504557893179</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1772,12 +1480,6 @@
       <c r="B49" t="n">
         <v>15</v>
       </c>
-      <c r="C49" t="n">
-        <v>-24.86874148817169</v>
-      </c>
-      <c r="D49" t="n">
-        <v>51.48720963289259</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1786,12 +1488,6 @@
       <c r="B50" t="n">
         <v>14</v>
       </c>
-      <c r="C50" t="n">
-        <v>-22.35915007404475</v>
-      </c>
-      <c r="D50" t="n">
-        <v>52.34211695987424</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1800,12 +1496,6 @@
       <c r="B51" t="n">
         <v>14</v>
       </c>
-      <c r="C51" t="n">
-        <v>-24.49103145888434</v>
-      </c>
-      <c r="D51" t="n">
-        <v>52.25494542645764</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1814,12 +1504,6 @@
       <c r="B52" t="n">
         <v>13</v>
       </c>
-      <c r="C52" t="n">
-        <v>-23.49907724544061</v>
-      </c>
-      <c r="D52" t="n">
-        <v>49.27712741011707</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1828,12 +1512,6 @@
       <c r="B53" t="n">
         <v>13</v>
       </c>
-      <c r="C53" t="n">
-        <v>-22.91458905622266</v>
-      </c>
-      <c r="D53" t="n">
-        <v>51.59991216806661</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1842,12 +1520,6 @@
       <c r="B54" t="n">
         <v>12</v>
       </c>
-      <c r="C54" t="n">
-        <v>-26.6369035448695</v>
-      </c>
-      <c r="D54" t="n">
-        <v>51.9619989135785</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1856,12 +1528,6 @@
       <c r="B55" t="n">
         <v>12</v>
       </c>
-      <c r="C55" t="n">
-        <v>-26.45282947889901</v>
-      </c>
-      <c r="D55" t="n">
-        <v>51.22325593272369</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1870,12 +1536,6 @@
       <c r="B56" t="n">
         <v>11</v>
       </c>
-      <c r="C56" t="n">
-        <v>-24.01670138319271</v>
-      </c>
-      <c r="D56" t="n">
-        <v>46.71896252606422</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1884,12 +1544,6 @@
       <c r="B57" t="n">
         <v>11</v>
       </c>
-      <c r="C57" t="n">
-        <v>-23.23146704726793</v>
-      </c>
-      <c r="D57" t="n">
-        <v>52.02293897469358</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1898,12 +1552,6 @@
       <c r="B58" t="n">
         <v>11</v>
       </c>
-      <c r="C58" t="n">
-        <v>-24.01478178420362</v>
-      </c>
-      <c r="D58" t="n">
-        <v>50.83912563026286</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1912,12 +1560,6 @@
       <c r="B59" t="n">
         <v>10</v>
       </c>
-      <c r="C59" t="n">
-        <v>-28.77705666290768</v>
-      </c>
-      <c r="D59" t="n">
-        <v>46.98415223804604</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1926,12 +1568,6 @@
       <c r="B60" t="n">
         <v>10</v>
       </c>
-      <c r="C60" t="n">
-        <v>-26.91286572404256</v>
-      </c>
-      <c r="D60" t="n">
-        <v>47.97062562024498</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1940,12 +1576,6 @@
       <c r="B61" t="n">
         <v>9</v>
       </c>
-      <c r="C61" t="n">
-        <v>-28.35309903641337</v>
-      </c>
-      <c r="D61" t="n">
-        <v>47.32231860709455</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -1954,12 +1584,6 @@
       <c r="B62" t="n">
         <v>9</v>
       </c>
-      <c r="C62" t="n">
-        <v>-27.48818421441822</v>
-      </c>
-      <c r="D62" t="n">
-        <v>46.81655847436143</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -1968,12 +1592,6 @@
       <c r="B63" t="n">
         <v>8</v>
       </c>
-      <c r="C63" t="n">
-        <v>-26.23998763013905</v>
-      </c>
-      <c r="D63" t="n">
-        <v>45.79599863684756</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -1981,12 +1599,6 @@
       </c>
       <c r="B64" t="n">
         <v>8</v>
-      </c>
-      <c r="C64" t="n">
-        <v>-27.93332168467216</v>
-      </c>
-      <c r="D64" t="n">
-        <v>43.54791712510469</v>
       </c>
     </row>
   </sheetData>
